--- a/UML/クラスwithメソッド命名_v2.xlsx
+++ b/UML/クラスwithメソッド命名_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="198">
   <si>
     <t>変換前</t>
     <rPh sb="0" eb="2">
@@ -594,22 +594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RightCourse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LeftCourse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EdgeTrace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Search</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>競技シナリオ指揮者</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -760,59 +744,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TRACE_MODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GSTA_UNSTABLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GSTA_STABILITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GSTA_FALLING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RUNNING_PAT_INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STATE_FLOW_INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BODY_STATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GYRO_STATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーセンサカラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COLOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COLOR_BLACK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COLOR_ＧＲＡＹ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COLOR_ＷＨＩＴＥ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMODE_SEARCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>RUNNING_ROUTE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TRACE_MODE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GYRO_STATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GSTA_UNSTABLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GSTA_STABILITY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GSTA_FALLING</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLACK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COLOR_COLOR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COLOR_ＧＲＡＹ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COLOR_ＷＨＩＴＥ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RROUTE_WAITING</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RUNNING_PAT_INDEX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STATE_FLOW_INDEX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BODY_STATE</t>
+    <t>RROUTE_RIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RROUTE_LEFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMODE_EDGE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1178,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1229,7 +1233,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1237,7 +1241,7 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1246,7 +1250,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1254,7 +1258,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1276,7 +1280,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1324,10 +1328,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1354,7 +1358,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1362,7 +1366,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1373,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -1384,7 +1388,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1398,7 +1402,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1409,7 +1413,7 @@
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1420,7 +1424,7 @@
         <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1442,7 +1446,7 @@
         <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1453,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1464,7 +1468,7 @@
         <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1473,7 +1477,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1484,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1495,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1506,7 +1510,7 @@
         <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1533,7 +1537,7 @@
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1544,7 +1548,7 @@
         <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1552,7 +1556,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1560,7 +1564,7 @@
         <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1571,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1582,7 +1586,7 @@
         <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1590,7 +1594,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1598,7 +1602,7 @@
         <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1606,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1614,7 +1618,7 @@
         <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1622,7 +1626,7 @@
         <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1630,7 +1634,7 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1641,7 +1645,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1652,7 +1656,7 @@
         <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1660,7 +1664,7 @@
         <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1668,7 +1672,7 @@
         <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1676,7 +1680,7 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1689,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1697,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1705,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1721,7 +1725,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1732,7 +1736,7 @@
         <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1740,7 +1744,7 @@
         <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1748,7 +1752,7 @@
         <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1756,10 +1760,10 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1778,7 +1782,7 @@
         <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1786,7 +1790,7 @@
         <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1797,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1808,7 +1812,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1816,7 +1820,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -1824,7 +1828,7 @@
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -1835,7 +1839,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1846,7 +1850,7 @@
         <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1854,7 +1858,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/UML/クラスwithメソッド命名_v2.xlsx
+++ b/UML/クラスwithメソッド命名_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs45025\Desktop\ETrobocon\2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\etrobocon\Git\2016-ETrob\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="8355"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19350" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,26 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>getColorSensorState</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getBalanceState</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getMileage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getBodyAngle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getTailAngle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>execScenario</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,6 +797,26 @@
   </si>
   <si>
     <t>TMODE_EDGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getColorSensorState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getBalanceState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getMileage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getBodyAngle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getTailAngle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1233,7 +1233,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1241,7 +1241,7 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1250,7 +1250,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1258,7 +1258,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1280,7 +1280,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1288,7 +1288,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1296,7 +1296,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1304,7 +1304,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1312,7 +1312,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -1320,7 +1320,7 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -1328,10 +1328,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1342,7 +1342,7 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1350,7 +1350,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -1358,7 +1358,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1366,7 +1366,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1402,7 +1402,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1410,10 +1410,10 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1421,10 +1421,10 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1435,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1443,10 +1443,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1457,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1468,7 +1468,7 @@
         <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1477,7 +1477,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1488,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1499,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1510,7 +1510,7 @@
         <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1518,7 +1518,7 @@
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1526,7 +1526,7 @@
         <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1537,7 +1537,7 @@
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1575,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1586,7 +1586,7 @@
         <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1594,15 +1594,15 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1610,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1618,7 +1618,7 @@
         <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1626,7 +1626,7 @@
         <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1634,7 +1634,7 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1645,7 +1645,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1656,7 +1656,7 @@
         <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1664,7 +1664,7 @@
         <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1672,7 +1672,7 @@
         <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1680,7 +1680,7 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1693,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1701,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1725,7 +1725,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1736,7 +1736,7 @@
         <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1744,7 +1744,7 @@
         <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1752,7 +1752,7 @@
         <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1760,10 +1760,10 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1774,7 +1774,7 @@
         <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1782,7 +1782,7 @@
         <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1790,7 +1790,7 @@
         <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1812,7 +1812,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1820,7 +1820,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -1828,7 +1828,7 @@
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -1839,7 +1839,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1850,7 +1850,7 @@
         <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1858,7 +1858,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1873,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
